--- a/data.xlsx
+++ b/data.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$L$14:$L$23</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>CP1</t>
   </si>
@@ -65,13 +68,64 @@
   <si>
     <t>thumboo.txt</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>Comments : As we can see the Chart for CP1 and CP2 is different. For a small file we can't hardly detect the different. However as the file size got bigger, we can clearly see the efficiency of the AES protocol.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agrim/Duc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tien</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,8 +165,1867 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CP2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7526197531155683E-2"/>
+          <c:y val="0.14117075848092714"/>
+          <c:w val="0.90769119377319218"/>
+          <c:h val="0.71299993667011463"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$L$14:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$M$14:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45.850006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.429076999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.815528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.460070999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.167079000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.608604999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.462873999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.627006000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.114986999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.202342999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="41382272"/>
+        <c:axId val="41383808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41382272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41383808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41383808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41382272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CP1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43727077865266845"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.7678960000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.211963000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.867557999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.591720999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.301909999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.175502999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>815.5647929999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>896.36756800000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>881.65531899999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>986.50473999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="41403904"/>
+        <c:axId val="41405440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41403904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41405440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41405440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41403904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +2326,7 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,366 +2342,465 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1.214029</v>
+      </c>
+      <c r="C2">
+        <v>5.3891000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.4999760000000002</v>
+      </c>
+      <c r="E2">
+        <v>256</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F11" si="0">SUM(D2,C2,B2)</f>
+        <v>9.7678960000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1.6688449999999999</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>7.2842000000000004E-2</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>15.470276</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>288</v>
       </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>17.211963000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.654039</v>
+      </c>
+      <c r="C4">
+        <v>6.3366000000000006E-2</v>
+      </c>
+      <c r="D4">
+        <v>21.150153</v>
+      </c>
+      <c r="E4">
+        <v>512</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>22.867557999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2.192358</v>
+      </c>
+      <c r="C5">
+        <v>6.2774999999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>23.336587999999999</v>
+      </c>
+      <c r="E5">
+        <v>768</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>25.591720999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2.2705289999999998</v>
+      </c>
+      <c r="C6">
+        <v>6.6327999999999998E-2</v>
+      </c>
+      <c r="D6">
+        <v>26.965053000000001</v>
+      </c>
+      <c r="E6">
+        <v>768</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>29.301909999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>3.9447049999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.13206300000000001</v>
+      </c>
+      <c r="D7">
+        <v>46.098734999999998</v>
+      </c>
+      <c r="E7">
+        <v>1536</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>50.175502999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B8">
         <v>80.608530000000002</v>
       </c>
-      <c r="C3">
+      <c r="C8">
         <v>1.9602120000000001</v>
       </c>
-      <c r="D3">
+      <c r="D8">
         <v>732.99605099999997</v>
       </c>
-      <c r="E3">
+      <c r="E8">
         <v>38656</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>815.5647929999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>84.162969000000004</v>
+      </c>
+      <c r="C9">
+        <v>1.4757849999999999</v>
+      </c>
+      <c r="D9">
+        <v>810.72881400000006</v>
+      </c>
+      <c r="E9">
+        <v>43904</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>896.36756800000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>88.153273999999996</v>
+      </c>
+      <c r="C10">
+        <v>1.796762</v>
+      </c>
+      <c r="D10">
+        <v>791.70528300000001</v>
+      </c>
+      <c r="E10">
+        <v>44672</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>881.65531899999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>78.345106999999999</v>
+      </c>
+      <c r="C11">
+        <v>2.9195899999999999</v>
+      </c>
+      <c r="D11">
+        <v>905.24004300000001</v>
+      </c>
+      <c r="E11">
+        <v>46720</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>986.50473999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1.214029</v>
-      </c>
-      <c r="C4">
-        <v>5.3891000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>8.4999760000000002</v>
-      </c>
-      <c r="E4">
+      <c r="I14">
+        <v>12.390789</v>
+      </c>
+      <c r="J14">
+        <v>5.0338000000000001E-2</v>
+      </c>
+      <c r="K14">
+        <v>33.408878999999999</v>
+      </c>
+      <c r="L14">
         <v>256</v>
       </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M23" si="1">SUM(K14,J14,I14)</f>
+        <v>45.850006</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>13.507103000000001</v>
+      </c>
+      <c r="J15">
+        <v>5.8036999999999998E-2</v>
+      </c>
+      <c r="K15">
+        <v>34.863937</v>
+      </c>
+      <c r="L15">
+        <v>288</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>48.429076999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>13.880787</v>
+      </c>
+      <c r="J16">
+        <v>4.7968999999999998E-2</v>
+      </c>
+      <c r="K16">
+        <v>28.886772000000001</v>
+      </c>
+      <c r="L16">
+        <v>512</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>42.815528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>10.993176</v>
+      </c>
+      <c r="J17">
+        <v>6.0997000000000003E-2</v>
+      </c>
+      <c r="K17">
+        <v>28.405898000000001</v>
+      </c>
+      <c r="L17">
+        <v>768</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>39.460070999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>11.686653</v>
+      </c>
+      <c r="J18">
+        <v>5.0930000000000003E-2</v>
+      </c>
+      <c r="K18">
+        <v>35.429496</v>
+      </c>
+      <c r="L18">
+        <v>768</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>47.167079000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>11.115171</v>
+      </c>
+      <c r="J19">
+        <v>0.11074299999999999</v>
+      </c>
+      <c r="K19">
+        <v>30.382691000000001</v>
+      </c>
+      <c r="L19">
+        <v>1536</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>41.608604999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>13.391030000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.46192299999999997</v>
+      </c>
+      <c r="K20">
+        <v>44.609921</v>
+      </c>
+      <c r="L20">
+        <v>38656</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>58.462873999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>12.839092000000001</v>
+      </c>
+      <c r="J21">
+        <v>0.45540900000000001</v>
+      </c>
+      <c r="K21">
+        <v>38.332504999999998</v>
+      </c>
+      <c r="L21">
+        <v>43904</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>51.627006000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>88.153273999999996</v>
-      </c>
-      <c r="C5">
-        <v>1.796762</v>
-      </c>
-      <c r="D5">
-        <v>791.70528300000001</v>
-      </c>
-      <c r="E5">
+      <c r="I22">
+        <v>13.408205000000001</v>
+      </c>
+      <c r="J22">
+        <v>0.47436</v>
+      </c>
+      <c r="K22">
+        <v>38.232422</v>
+      </c>
+      <c r="L22">
         <v>44672</v>
       </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>52.114986999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1.654039</v>
-      </c>
-      <c r="C6">
-        <v>6.3366000000000006E-2</v>
-      </c>
-      <c r="D6">
-        <v>21.150153</v>
-      </c>
-      <c r="E6">
-        <v>512</v>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>28.200993</v>
+      </c>
+      <c r="J23">
+        <v>0.55608400000000002</v>
+      </c>
+      <c r="K23">
+        <v>39.445265999999997</v>
+      </c>
+      <c r="L23">
+        <v>46720</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>68.202342999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2.192358</v>
-      </c>
-      <c r="C7">
-        <v>6.2774999999999997E-2</v>
-      </c>
-      <c r="D7">
-        <v>23.336587999999999</v>
-      </c>
-      <c r="E7">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2.2705289999999998</v>
-      </c>
-      <c r="C8">
-        <v>6.6327999999999998E-2</v>
-      </c>
-      <c r="D8">
-        <v>26.965053000000001</v>
-      </c>
-      <c r="E8">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>78.345106999999999</v>
-      </c>
-      <c r="C9">
-        <v>2.9195899999999999</v>
-      </c>
-      <c r="D9">
-        <v>905.24004300000001</v>
-      </c>
-      <c r="E9">
-        <v>46720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>84.162969000000004</v>
-      </c>
-      <c r="C10">
-        <v>1.4757849999999999</v>
-      </c>
-      <c r="D10">
-        <v>810.72881400000006</v>
-      </c>
-      <c r="E10">
-        <v>43904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>3.9447049999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.13206300000000001</v>
-      </c>
-      <c r="D11">
-        <v>46.098734999999998</v>
-      </c>
-      <c r="E11">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>13.507103000000001</v>
-      </c>
-      <c r="C14">
-        <v>5.8036999999999998E-2</v>
-      </c>
-      <c r="D14">
-        <v>34.863937</v>
-      </c>
-      <c r="E14">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>13.391030000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.46192299999999997</v>
-      </c>
-      <c r="D15">
-        <v>44.609921</v>
-      </c>
-      <c r="E15">
-        <v>38656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>12.390789</v>
-      </c>
-      <c r="C16">
-        <v>5.0338000000000001E-2</v>
-      </c>
-      <c r="D16">
-        <v>33.408878999999999</v>
-      </c>
-      <c r="E16">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>13.408205000000001</v>
-      </c>
-      <c r="C17">
-        <v>0.47436</v>
-      </c>
-      <c r="D17">
-        <v>38.232422</v>
-      </c>
-      <c r="E17">
-        <v>44672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>13.880787</v>
-      </c>
-      <c r="C18">
-        <v>4.7968999999999998E-2</v>
-      </c>
-      <c r="D18">
-        <v>28.886772000000001</v>
-      </c>
-      <c r="E18">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>10.993176</v>
-      </c>
-      <c r="C19">
-        <v>6.0997000000000003E-2</v>
-      </c>
-      <c r="D19">
-        <v>28.405898000000001</v>
-      </c>
-      <c r="E19">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>11.686653</v>
-      </c>
-      <c r="C20">
-        <v>5.0930000000000003E-2</v>
-      </c>
-      <c r="D20">
-        <v>35.429496</v>
-      </c>
-      <c r="E20">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>28.200993</v>
-      </c>
-      <c r="C21">
-        <v>0.55608400000000002</v>
-      </c>
-      <c r="D21">
-        <v>39.445265999999997</v>
-      </c>
-      <c r="E21">
-        <v>46720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>12.839092000000001</v>
-      </c>
-      <c r="C22">
-        <v>0.45540900000000001</v>
-      </c>
-      <c r="D22">
-        <v>38.332504999999998</v>
-      </c>
-      <c r="E22">
-        <v>43904</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>11.115171</v>
-      </c>
-      <c r="C23">
-        <v>0.11074299999999999</v>
-      </c>
-      <c r="D23">
-        <v>30.382691000000001</v>
-      </c>
-      <c r="E23">
-        <v>1536</v>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F11">
+    <sortCondition ref="E2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
